--- a/biology/Neurosciences/Ladislas_J._Meduna/Ladislas_J._Meduna.xlsx
+++ b/biology/Neurosciences/Ladislas_J._Meduna/Ladislas_J._Meduna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ladislas Joseph Meduna (né en 1896, mort en 1964) est un psychiatre hongrois, pionnier de la  convulsivothérapie au cardiazol.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au terme de ses études de médecine, Meduna travailla au centre de recherches en neurologie de Budapest. Il pensait qu'il existait un antagonisme entre la schizophrénie et l’épilepsie. À partir de 1933, il essaya de traiter la schizophrénie en déclenchant artificiellement des accès de convulsions chez des patients schizophrènes : dans ses premières publications, il évoque 26 de ses patients dont 10 auraient été ainsi « guéris ». 
 Pour déclencher ces accès de convulsions, Meduna eut d'abord recours au camphre, puis au pentotrazole. Au bout de quelques années, le traitement au cardiazol fut remplacé par l’électrothérapie.
